--- a/Simulations/table_raw.xlsx
+++ b/Simulations/table_raw.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28d01a6ed6b2b5da/Double ML/Simulations/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1B7A448922A72ACAC3FD9890E22D62B110BD962D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{004DCCD5-64FE-4384-B31F-1A464D892D4D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,11 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,29 +99,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -177,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,27 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,24 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,34 +397,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -511,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -522,696 +463,696 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
         <v>500</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <v>0.14099999999999999</v>
+        <v>0.195</v>
       </c>
       <c r="F4">
-        <v>0.94499999999999995</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G4">
-        <v>0.20799999999999999</v>
+        <v>0.137</v>
       </c>
       <c r="H4">
-        <v>0.252</v>
+        <v>0.211</v>
       </c>
       <c r="I4">
-        <v>0.66500000000000004</v>
+        <v>0.802</v>
       </c>
       <c r="J4">
-        <v>0.17100000000000001</v>
+        <v>-0.083</v>
       </c>
       <c r="K4">
-        <v>0.24</v>
+        <v>0.286</v>
       </c>
       <c r="L4">
-        <v>0.80300000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+        <v>0.964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>0.75</v>
       </c>
       <c r="D5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <v>0.13200000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="F5">
-        <v>0.94699999999999995</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="G5">
-        <v>0.16</v>
+        <v>0.115</v>
       </c>
       <c r="H5">
-        <v>0.20499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="I5">
-        <v>0.75600000000000001</v>
+        <v>0.826</v>
       </c>
       <c r="J5">
-        <v>0.16400000000000001</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="K5">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="L5">
-        <v>0.79100000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="E6">
-        <v>0.123</v>
+        <v>0.125</v>
       </c>
       <c r="F6">
-        <v>0.95199999999999996</v>
+        <v>0.946</v>
       </c>
       <c r="G6">
-        <v>0.128</v>
+        <v>0.102</v>
       </c>
       <c r="H6">
-        <v>0.17899999999999999</v>
+        <v>0.165</v>
       </c>
       <c r="I6">
-        <v>0.8</v>
+        <v>0.845</v>
       </c>
       <c r="J6">
-        <v>0.161</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="K6">
-        <v>0.21</v>
+        <v>0.217</v>
       </c>
       <c r="L6">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1.25</v>
       </c>
       <c r="D7">
-        <v>3.1E-2</v>
+        <v>0.027</v>
       </c>
       <c r="E7">
-        <v>0.11799999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="F7">
-        <v>0.94599999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="G7">
-        <v>0.108</v>
+        <v>0.096</v>
       </c>
       <c r="H7">
-        <v>0.16200000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="I7">
-        <v>0.85699999999999998</v>
+        <v>0.865</v>
       </c>
       <c r="J7">
-        <v>0.159</v>
+        <v>-0.09</v>
       </c>
       <c r="K7">
-        <v>0.20499999999999999</v>
+        <v>0.202</v>
       </c>
       <c r="L7">
-        <v>0.77800000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>1.5</v>
       </c>
       <c r="D8">
-        <v>4.3999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E8">
-        <v>0.11700000000000001</v>
+        <v>0.118</v>
       </c>
       <c r="F8">
-        <v>0.93500000000000005</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G8">
-        <v>9.4E-2</v>
+        <v>0.093</v>
       </c>
       <c r="H8">
-        <v>0.14899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I8">
-        <v>0.86599999999999999</v>
+        <v>0.865</v>
       </c>
       <c r="J8">
-        <v>0.159</v>
+        <v>-0.091</v>
       </c>
       <c r="K8">
-        <v>0.20200000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="L8">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>4.5999999999999999E-2</v>
+        <v>-0.161</v>
       </c>
       <c r="E9">
-        <v>1.5740000000000001</v>
+        <v>5.785</v>
       </c>
       <c r="F9">
-        <v>0.95899999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="G9">
-        <v>-2.5999999999999999E-2</v>
+        <v>-0.005</v>
       </c>
       <c r="H9">
-        <v>0.19800000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="I9">
-        <v>0.96199999999999997</v>
+        <v>0.957</v>
       </c>
       <c r="J9">
-        <v>-8.2000000000000003E-2</v>
+        <v>-0.089</v>
       </c>
       <c r="K9">
-        <v>0.41299999999999998</v>
+        <v>0.292</v>
       </c>
       <c r="L9">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+        <v>0.964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>0.75</v>
       </c>
       <c r="D10">
-        <v>3.5999999999999997E-2</v>
+        <v>-0.003</v>
       </c>
       <c r="E10">
-        <v>0.92100000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
-        <v>0.95599999999999996</v>
+        <v>0.948</v>
       </c>
       <c r="G10">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.159</v>
+        <v>0.163</v>
       </c>
       <c r="I10">
-        <v>0.97399999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="J10">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="K10">
-        <v>0.21099999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="L10">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.7000000000000001E-2</v>
+        <v>0.013</v>
       </c>
       <c r="E11">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="F11">
-        <v>0.95499999999999996</v>
+        <v>0.944</v>
       </c>
       <c r="G11">
-        <v>-7.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="H11">
-        <v>0.14599999999999999</v>
+        <v>0.145</v>
       </c>
       <c r="I11">
-        <v>0.96799999999999997</v>
+        <v>0.957</v>
       </c>
       <c r="J11">
-        <v>-5.5E-2</v>
+        <v>-0.091</v>
       </c>
       <c r="K11">
-        <v>0.189</v>
+        <v>0.22</v>
       </c>
       <c r="L11">
-        <v>0.95599999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>1.25</v>
       </c>
       <c r="D12">
-        <v>2.9000000000000001E-2</v>
+        <v>0.024</v>
       </c>
       <c r="E12">
         <v>0.121</v>
       </c>
       <c r="F12">
-        <v>0.94699999999999995</v>
+        <v>0.951</v>
       </c>
       <c r="G12">
-        <v>-6.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="H12">
-        <v>0.13400000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="I12">
-        <v>0.96099999999999997</v>
+        <v>0.963</v>
       </c>
       <c r="J12">
-        <v>-5.0999999999999997E-2</v>
+        <v>-0.093</v>
       </c>
       <c r="K12">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="L12">
-        <v>0.95599999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>1.5</v>
       </c>
       <c r="D13">
-        <v>4.2000000000000003E-2</v>
+        <v>0.038</v>
       </c>
       <c r="E13">
-        <v>0.11799999999999999</v>
+        <v>0.119</v>
       </c>
       <c r="F13">
-        <v>0.93799999999999994</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G13">
-        <v>-4.0000000000000001E-3</v>
+        <v>0.012</v>
       </c>
       <c r="H13">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="I13">
-        <v>0.96299999999999997</v>
+        <v>0.962</v>
       </c>
       <c r="J13">
-        <v>-0.05</v>
+        <v>-0.094</v>
       </c>
       <c r="K13">
-        <v>0.161</v>
+        <v>0.195</v>
       </c>
       <c r="L13">
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+        <v>0.9419999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
         <v>1000</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>0.5</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14">
+        <v>0.01</v>
       </c>
       <c r="E14">
         <v>0.121</v>
       </c>
       <c r="F14">
-        <v>0.95199999999999996</v>
+        <v>0.954</v>
       </c>
       <c r="G14">
-        <v>0.16500000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="H14">
-        <v>0.193</v>
+        <v>0.169</v>
       </c>
       <c r="I14">
-        <v>0.55600000000000005</v>
+        <v>0.718</v>
       </c>
       <c r="J14">
-        <v>4.7E-2</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="K14">
-        <v>0.14299999999999999</v>
+        <v>0.229</v>
       </c>
       <c r="L14">
-        <v>0.93700000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>0.75</v>
       </c>
       <c r="D15">
-        <v>4.0000000000000001E-3</v>
+        <v>0.014</v>
       </c>
       <c r="E15">
-        <v>0.10299999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="F15">
-        <v>0.95399999999999996</v>
+        <v>0.949</v>
       </c>
       <c r="G15">
-        <v>0.13300000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="H15">
-        <v>0.16200000000000001</v>
+        <v>0.149</v>
       </c>
       <c r="I15">
-        <v>0.63600000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="J15">
-        <v>4.3999999999999997E-2</v>
+        <v>-0.081</v>
       </c>
       <c r="K15">
-        <v>0.124</v>
+        <v>0.195</v>
       </c>
       <c r="L15">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1.2E-2</v>
+        <v>0.018</v>
       </c>
       <c r="E16">
-        <v>9.4E-2</v>
+        <v>0.097</v>
       </c>
       <c r="F16">
-        <v>0.95399999999999996</v>
+        <v>0.951</v>
       </c>
       <c r="G16">
-        <v>0.105</v>
+        <v>0.096</v>
       </c>
       <c r="H16">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="I16">
-        <v>0.73299999999999998</v>
+        <v>0.769</v>
       </c>
       <c r="J16">
-        <v>4.7E-2</v>
+        <v>-0.082</v>
       </c>
       <c r="K16">
-        <v>0.114</v>
+        <v>0.177</v>
       </c>
       <c r="L16">
-        <v>0.93300000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+        <v>0.949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>1.25</v>
       </c>
       <c r="D17">
-        <v>1.9E-2</v>
+        <v>0.025</v>
       </c>
       <c r="E17">
-        <v>8.7999999999999995E-2</v>
+        <v>0.093</v>
       </c>
       <c r="F17">
-        <v>0.95399999999999996</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G17">
-        <v>9.5000000000000001E-2</v>
+        <v>0.092</v>
       </c>
       <c r="H17">
-        <v>0.127</v>
+        <v>0.13</v>
       </c>
       <c r="I17">
-        <v>0.76400000000000001</v>
+        <v>0.779</v>
       </c>
       <c r="J17">
-        <v>0.05</v>
+        <v>-0.083</v>
       </c>
       <c r="K17">
-        <v>0.109</v>
+        <v>0.166</v>
       </c>
       <c r="L17">
-        <v>0.91700000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>1.5</v>
       </c>
       <c r="D18">
-        <v>2.9000000000000001E-2</v>
+        <v>0.034</v>
       </c>
       <c r="E18">
-        <v>8.5999999999999993E-2</v>
+        <v>0.092</v>
       </c>
       <c r="F18">
-        <v>0.95</v>
+        <v>0.924</v>
       </c>
       <c r="G18">
-        <v>8.5999999999999993E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H18">
-        <v>0.11899999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="I18">
-        <v>0.79300000000000004</v>
+        <v>0.78</v>
       </c>
       <c r="J18">
-        <v>5.6000000000000001E-2</v>
+        <v>-0.083</v>
       </c>
       <c r="K18">
-        <v>0.107</v>
+        <v>0.157</v>
       </c>
       <c r="L18">
-        <v>0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
         <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>1E-3</v>
+        <v>0.008</v>
       </c>
       <c r="E19">
-        <v>0.21299999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="F19">
-        <v>0.95</v>
+        <v>0.956</v>
       </c>
       <c r="G19">
-        <v>-1.4E-2</v>
+        <v>0.007</v>
       </c>
       <c r="H19">
-        <v>0.14000000000000001</v>
+        <v>0.144</v>
       </c>
       <c r="I19">
-        <v>0.95799999999999996</v>
+        <v>0.954</v>
       </c>
       <c r="J19">
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="K19">
-        <v>0.16300000000000001</v>
+        <v>0.232</v>
       </c>
       <c r="L19">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>0.75</v>
       </c>
       <c r="D20">
-        <v>4.0000000000000001E-3</v>
+        <v>0.013</v>
       </c>
       <c r="E20">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="F20">
-        <v>0.95699999999999996</v>
+        <v>0.952</v>
       </c>
       <c r="G20">
-        <v>-2E-3</v>
+        <v>0.013</v>
       </c>
       <c r="H20">
-        <v>0.115</v>
+        <v>0.122</v>
       </c>
       <c r="I20">
-        <v>0.95499999999999996</v>
+        <v>0.949</v>
       </c>
       <c r="J20">
-        <v>-2.9000000000000001E-2</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="K20">
-        <v>0.13500000000000001</v>
+        <v>0.197</v>
       </c>
       <c r="L20">
-        <v>0.95899999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1.0999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="E21">
-        <v>9.4E-2</v>
+        <v>0.097</v>
       </c>
       <c r="F21">
-        <v>0.95699999999999996</v>
+        <v>0.952</v>
       </c>
       <c r="G21">
-        <v>-4.0000000000000001E-3</v>
+        <v>0.017</v>
       </c>
       <c r="H21">
-        <v>0.10199999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="I21">
-        <v>0.96199999999999997</v>
+        <v>0.948</v>
       </c>
       <c r="J21">
-        <v>-2.4E-2</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="K21">
-        <v>0.11899999999999999</v>
+        <v>0.179</v>
       </c>
       <c r="L21">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+        <v>0.946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>1.25</v>
       </c>
       <c r="D22">
-        <v>1.9E-2</v>
+        <v>0.025</v>
       </c>
       <c r="E22">
-        <v>8.7999999999999995E-2</v>
+        <v>0.093</v>
       </c>
       <c r="F22">
-        <v>0.95499999999999996</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G22">
-        <v>6.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="H22">
-        <v>9.6000000000000002E-2</v>
+        <v>0.103</v>
       </c>
       <c r="I22">
-        <v>0.95399999999999996</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J22">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="K22">
-        <v>0.107</v>
+        <v>0.168</v>
       </c>
       <c r="L22">
-        <v>0.96299999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>1.5</v>
       </c>
       <c r="D23">
-        <v>2.9000000000000001E-2</v>
+        <v>0.034</v>
       </c>
       <c r="E23">
-        <v>8.5999999999999993E-2</v>
+        <v>0.092</v>
       </c>
       <c r="F23">
-        <v>0.94499999999999995</v>
+        <v>0.923</v>
       </c>
       <c r="G23">
-        <v>7.0000000000000001E-3</v>
+        <v>0.026</v>
       </c>
       <c r="H23">
-        <v>8.8999999999999996E-2</v>
+        <v>0.098</v>
       </c>
       <c r="I23">
-        <v>0.95899999999999996</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J23">
-        <v>-1.2E-2</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="K23">
-        <v>0.1</v>
+        <v>0.158</v>
       </c>
       <c r="L23">
-        <v>0.96299999999999997</v>
+        <v>0.928</v>
       </c>
     </row>
   </sheetData>
@@ -1227,6 +1168,5 @@
     <mergeCell ref="B19:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Simulations/table_raw.xlsx
+++ b/Simulations/table_raw.xlsx
@@ -19,10 +19,10 @@
     <t>lasso</t>
   </si>
   <si>
-    <t>rf</t>
+    <t>grf</t>
   </si>
   <si>
-    <t>nn</t>
+    <t>knn</t>
   </si>
   <si>
     <t>Bias</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,25 +480,25 @@
         <v>0.195</v>
       </c>
       <c r="F4">
-        <v>0.9350000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G4">
-        <v>0.137</v>
+        <v>0.127</v>
       </c>
       <c r="H4">
-        <v>0.211</v>
+        <v>0.231</v>
       </c>
       <c r="I4">
-        <v>0.802</v>
+        <v>0.85</v>
       </c>
       <c r="J4">
-        <v>-0.083</v>
+        <v>-0.061</v>
       </c>
       <c r="K4">
-        <v>0.286</v>
+        <v>0.359</v>
       </c>
       <c r="L4">
-        <v>0.964</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -514,25 +514,25 @@
         <v>0.134</v>
       </c>
       <c r="F5">
-        <v>0.9389999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G5">
-        <v>0.115</v>
+        <v>0.106</v>
       </c>
       <c r="H5">
-        <v>0.18</v>
+        <v>0.203</v>
       </c>
       <c r="I5">
-        <v>0.826</v>
+        <v>0.859</v>
       </c>
       <c r="J5">
-        <v>-0.08599999999999999</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="K5">
-        <v>0.24</v>
+        <v>0.298</v>
       </c>
       <c r="L5">
-        <v>0.963</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -551,22 +551,22 @@
         <v>0.946</v>
       </c>
       <c r="G6">
-        <v>0.102</v>
+        <v>0.095</v>
       </c>
       <c r="H6">
-        <v>0.165</v>
+        <v>0.186</v>
       </c>
       <c r="I6">
-        <v>0.845</v>
+        <v>0.892</v>
       </c>
       <c r="J6">
-        <v>-0.08799999999999999</v>
+        <v>-0.076</v>
       </c>
       <c r="K6">
-        <v>0.217</v>
+        <v>0.265</v>
       </c>
       <c r="L6">
-        <v>0.962</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -585,22 +585,22 @@
         <v>0.95</v>
       </c>
       <c r="G7">
-        <v>0.096</v>
+        <v>0.09</v>
       </c>
       <c r="H7">
-        <v>0.154</v>
+        <v>0.174</v>
       </c>
       <c r="I7">
-        <v>0.865</v>
+        <v>0.907</v>
       </c>
       <c r="J7">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="K7">
-        <v>0.202</v>
+        <v>0.242</v>
       </c>
       <c r="L7">
-        <v>0.959</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -619,58 +619,58 @@
         <v>0.9379999999999999</v>
       </c>
       <c r="G8">
-        <v>0.093</v>
+        <v>0.089</v>
       </c>
       <c r="H8">
-        <v>0.15</v>
+        <v>0.168</v>
       </c>
       <c r="I8">
-        <v>0.865</v>
+        <v>0.911</v>
       </c>
       <c r="J8">
-        <v>-0.091</v>
+        <v>-0.081</v>
       </c>
       <c r="K8">
-        <v>0.192</v>
+        <v>0.227</v>
       </c>
       <c r="L8">
-        <v>0.947</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>-0.161</v>
+        <v>1.026</v>
       </c>
       <c r="E9">
-        <v>5.785</v>
+        <v>86.508</v>
       </c>
       <c r="F9">
+        <v>0.973</v>
+      </c>
+      <c r="G9">
+        <v>-0.001</v>
+      </c>
+      <c r="H9">
+        <v>0.211</v>
+      </c>
+      <c r="I9">
         <v>0.95</v>
       </c>
-      <c r="G9">
-        <v>-0.005</v>
-      </c>
-      <c r="H9">
-        <v>0.196</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <v>-0.092</v>
+      </c>
+      <c r="K9">
+        <v>0.308</v>
+      </c>
+      <c r="L9">
         <v>0.957</v>
-      </c>
-      <c r="J9">
-        <v>-0.089</v>
-      </c>
-      <c r="K9">
-        <v>0.292</v>
-      </c>
-      <c r="L9">
-        <v>0.964</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -680,31 +680,31 @@
         <v>0.75</v>
       </c>
       <c r="D10">
-        <v>-0.003</v>
+        <v>-0.359</v>
       </c>
       <c r="E10">
-        <v>0.2</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F10">
-        <v>0.948</v>
+        <v>0.965</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="H10">
-        <v>0.163</v>
+        <v>0.17</v>
       </c>
       <c r="I10">
-        <v>0.95</v>
+        <v>0.957</v>
       </c>
       <c r="J10">
-        <v>-0.09</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="K10">
-        <v>0.244</v>
+        <v>0.251</v>
       </c>
       <c r="L10">
-        <v>0.963</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -714,31 +714,31 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.013</v>
+        <v>-0.02</v>
       </c>
       <c r="E11">
-        <v>0.13</v>
+        <v>0.598</v>
       </c>
       <c r="F11">
-        <v>0.944</v>
+        <v>0.95</v>
       </c>
       <c r="G11">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="H11">
-        <v>0.145</v>
+        <v>0.149</v>
       </c>
       <c r="I11">
-        <v>0.957</v>
+        <v>0.963</v>
       </c>
       <c r="J11">
-        <v>-0.091</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="K11">
-        <v>0.22</v>
+        <v>0.222</v>
       </c>
       <c r="L11">
-        <v>0.959</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -748,31 +748,31 @@
         <v>1.25</v>
       </c>
       <c r="D12">
-        <v>0.024</v>
+        <v>-0.055</v>
       </c>
       <c r="E12">
-        <v>0.121</v>
+        <v>2.72</v>
       </c>
       <c r="F12">
-        <v>0.951</v>
+        <v>0.956</v>
       </c>
       <c r="G12">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H12">
-        <v>0.134</v>
+        <v>0.138</v>
       </c>
       <c r="I12">
-        <v>0.963</v>
+        <v>0.96</v>
       </c>
       <c r="J12">
-        <v>-0.093</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="K12">
         <v>0.205</v>
       </c>
       <c r="L12">
-        <v>0.955</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -782,69 +782,67 @@
         <v>1.5</v>
       </c>
       <c r="D13">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="E13">
-        <v>0.119</v>
+        <v>0.124</v>
       </c>
       <c r="F13">
-        <v>0.9429999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="G13">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="H13">
-        <v>0.127</v>
+        <v>0.13</v>
       </c>
       <c r="I13">
-        <v>0.962</v>
+        <v>0.965</v>
       </c>
       <c r="J13">
-        <v>-0.094</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="K13">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="L13">
-        <v>0.9419999999999999</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>1000</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>0.01</v>
+        <v>-0.161</v>
       </c>
       <c r="E14">
-        <v>0.121</v>
+        <v>5.782</v>
       </c>
       <c r="F14">
-        <v>0.954</v>
+        <v>0.95</v>
       </c>
       <c r="G14">
-        <v>0.121</v>
+        <v>0.008</v>
       </c>
       <c r="H14">
-        <v>0.169</v>
+        <v>0.254</v>
       </c>
       <c r="I14">
-        <v>0.718</v>
+        <v>0.951</v>
       </c>
       <c r="J14">
-        <v>-0.08400000000000001</v>
+        <v>-0.076</v>
       </c>
       <c r="K14">
-        <v>0.229</v>
+        <v>0.365</v>
       </c>
       <c r="L14">
-        <v>0.969</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -854,31 +852,31 @@
         <v>0.75</v>
       </c>
       <c r="D15">
-        <v>0.014</v>
+        <v>-0.003</v>
       </c>
       <c r="E15">
-        <v>0.106</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>0.949</v>
+        <v>0.947</v>
       </c>
       <c r="G15">
-        <v>0.105</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0.149</v>
+        <v>0.209</v>
       </c>
       <c r="I15">
-        <v>0.752</v>
+        <v>0.958</v>
       </c>
       <c r="J15">
-        <v>-0.081</v>
+        <v>-0.077</v>
       </c>
       <c r="K15">
-        <v>0.195</v>
+        <v>0.303</v>
       </c>
       <c r="L15">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -888,31 +886,31 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="E16">
-        <v>0.097</v>
+        <v>0.13</v>
       </c>
       <c r="F16">
-        <v>0.951</v>
+        <v>0.944</v>
       </c>
       <c r="G16">
-        <v>0.096</v>
+        <v>0.011</v>
       </c>
       <c r="H16">
-        <v>0.137</v>
+        <v>0.185</v>
       </c>
       <c r="I16">
-        <v>0.769</v>
+        <v>0.96</v>
       </c>
       <c r="J16">
-        <v>-0.082</v>
+        <v>-0.08</v>
       </c>
       <c r="K16">
-        <v>0.177</v>
+        <v>0.269</v>
       </c>
       <c r="L16">
-        <v>0.949</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -925,28 +923,28 @@
         <v>0.025</v>
       </c>
       <c r="E17">
-        <v>0.093</v>
+        <v>0.122</v>
       </c>
       <c r="F17">
-        <v>0.9350000000000001</v>
+        <v>0.951</v>
       </c>
       <c r="G17">
-        <v>0.092</v>
+        <v>0.013</v>
       </c>
       <c r="H17">
-        <v>0.13</v>
+        <v>0.168</v>
       </c>
       <c r="I17">
-        <v>0.779</v>
+        <v>0.964</v>
       </c>
       <c r="J17">
-        <v>-0.083</v>
+        <v>-0.082</v>
       </c>
       <c r="K17">
-        <v>0.166</v>
+        <v>0.245</v>
       </c>
       <c r="L17">
-        <v>0.931</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -956,67 +954,69 @@
         <v>1.5</v>
       </c>
       <c r="D18">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="E18">
-        <v>0.092</v>
+        <v>0.119</v>
       </c>
       <c r="F18">
-        <v>0.924</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G18">
-        <v>0.09</v>
+        <v>0.018</v>
       </c>
       <c r="H18">
-        <v>0.126</v>
+        <v>0.157</v>
       </c>
       <c r="I18">
-        <v>0.78</v>
+        <v>0.966</v>
       </c>
       <c r="J18">
         <v>-0.083</v>
       </c>
       <c r="K18">
-        <v>0.157</v>
+        <v>0.229</v>
       </c>
       <c r="L18">
-        <v>0.929</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>1000</v>
+      </c>
       <c r="B19" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="E19">
-        <v>0.124</v>
+        <v>0.121</v>
       </c>
       <c r="F19">
-        <v>0.956</v>
+        <v>0.954</v>
       </c>
       <c r="G19">
-        <v>0.007</v>
+        <v>0.109</v>
       </c>
       <c r="H19">
-        <v>0.144</v>
+        <v>0.184</v>
       </c>
       <c r="I19">
-        <v>0.954</v>
+        <v>0.789</v>
       </c>
       <c r="J19">
-        <v>-0.08799999999999999</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="K19">
-        <v>0.232</v>
+        <v>0.288</v>
       </c>
       <c r="L19">
-        <v>0.965</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1026,31 +1026,31 @@
         <v>0.75</v>
       </c>
       <c r="D20">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="E20">
         <v>0.106</v>
       </c>
       <c r="F20">
-        <v>0.952</v>
+        <v>0.949</v>
       </c>
       <c r="G20">
-        <v>0.013</v>
+        <v>0.091</v>
       </c>
       <c r="H20">
-        <v>0.122</v>
+        <v>0.161</v>
       </c>
       <c r="I20">
-        <v>0.949</v>
+        <v>0.827</v>
       </c>
       <c r="J20">
-        <v>-0.08400000000000001</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="K20">
-        <v>0.197</v>
+        <v>0.24</v>
       </c>
       <c r="L20">
-        <v>0.959</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1066,25 +1066,25 @@
         <v>0.097</v>
       </c>
       <c r="F21">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
       <c r="G21">
-        <v>0.017</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H21">
-        <v>0.11</v>
+        <v>0.146</v>
       </c>
       <c r="I21">
-        <v>0.948</v>
+        <v>0.843</v>
       </c>
       <c r="J21">
-        <v>-0.08400000000000001</v>
+        <v>-0.073</v>
       </c>
       <c r="K21">
-        <v>0.179</v>
+        <v>0.21</v>
       </c>
       <c r="L21">
-        <v>0.946</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1100,25 +1100,25 @@
         <v>0.093</v>
       </c>
       <c r="F22">
-        <v>0.9330000000000001</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G22">
-        <v>0.02</v>
+        <v>0.081</v>
       </c>
       <c r="H22">
-        <v>0.103</v>
+        <v>0.139</v>
       </c>
       <c r="I22">
-        <v>0.9389999999999999</v>
+        <v>0.855</v>
       </c>
       <c r="J22">
-        <v>-0.08599999999999999</v>
+        <v>-0.074</v>
       </c>
       <c r="K22">
-        <v>0.168</v>
+        <v>0.192</v>
       </c>
       <c r="L22">
-        <v>0.929</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1134,38 +1134,384 @@
         <v>0.092</v>
       </c>
       <c r="F23">
+        <v>0.924</v>
+      </c>
+      <c r="G23">
+        <v>0.08</v>
+      </c>
+      <c r="H23">
+        <v>0.134</v>
+      </c>
+      <c r="I23">
+        <v>0.853</v>
+      </c>
+      <c r="J23">
+        <v>-0.075</v>
+      </c>
+      <c r="K23">
+        <v>0.181</v>
+      </c>
+      <c r="L23">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>-0.061</v>
+      </c>
+      <c r="E24">
+        <v>1.566</v>
+      </c>
+      <c r="F24">
+        <v>0.96</v>
+      </c>
+      <c r="G24">
+        <v>0.004</v>
+      </c>
+      <c r="H24">
+        <v>0.15</v>
+      </c>
+      <c r="I24">
+        <v>0.948</v>
+      </c>
+      <c r="J24">
+        <v>-0.083</v>
+      </c>
+      <c r="K24">
+        <v>0.235</v>
+      </c>
+      <c r="L24">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D25">
+        <v>0.007</v>
+      </c>
+      <c r="E25">
+        <v>0.158</v>
+      </c>
+      <c r="F25">
+        <v>0.952</v>
+      </c>
+      <c r="G25">
+        <v>0.007</v>
+      </c>
+      <c r="H25">
+        <v>0.125</v>
+      </c>
+      <c r="I25">
+        <v>0.956</v>
+      </c>
+      <c r="J25">
+        <v>-0.08400000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.2</v>
+      </c>
+      <c r="L25">
+        <v>0.944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.018</v>
+      </c>
+      <c r="E26">
+        <v>0.098</v>
+      </c>
+      <c r="F26">
+        <v>0.954</v>
+      </c>
+      <c r="G26">
+        <v>0.01</v>
+      </c>
+      <c r="H26">
+        <v>0.111</v>
+      </c>
+      <c r="I26">
+        <v>0.955</v>
+      </c>
+      <c r="J26">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.178</v>
+      </c>
+      <c r="L26">
+        <v>0.9360000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D27">
+        <v>0.025</v>
+      </c>
+      <c r="E27">
+        <v>0.094</v>
+      </c>
+      <c r="F27">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.013</v>
+      </c>
+      <c r="H27">
+        <v>0.102</v>
+      </c>
+      <c r="I27">
+        <v>0.952</v>
+      </c>
+      <c r="J27">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.165</v>
+      </c>
+      <c r="L27">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D28">
+        <v>0.035</v>
+      </c>
+      <c r="E28">
+        <v>0.092</v>
+      </c>
+      <c r="F28">
+        <v>0.919</v>
+      </c>
+      <c r="G28">
+        <v>0.017</v>
+      </c>
+      <c r="H28">
+        <v>0.096</v>
+      </c>
+      <c r="I28">
+        <v>0.951</v>
+      </c>
+      <c r="J28">
+        <v>-0.08699999999999999</v>
+      </c>
+      <c r="K28">
+        <v>0.156</v>
+      </c>
+      <c r="L28">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>0.008</v>
+      </c>
+      <c r="E29">
+        <v>0.124</v>
+      </c>
+      <c r="F29">
+        <v>0.956</v>
+      </c>
+      <c r="G29">
+        <v>0.001</v>
+      </c>
+      <c r="H29">
+        <v>0.188</v>
+      </c>
+      <c r="I29">
+        <v>0.951</v>
+      </c>
+      <c r="J29">
+        <v>-0.075</v>
+      </c>
+      <c r="K29">
+        <v>0.291</v>
+      </c>
+      <c r="L29">
+        <v>0.946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D30">
+        <v>0.013</v>
+      </c>
+      <c r="E30">
+        <v>0.106</v>
+      </c>
+      <c r="F30">
+        <v>0.952</v>
+      </c>
+      <c r="G30">
+        <v>0.006</v>
+      </c>
+      <c r="H30">
+        <v>0.156</v>
+      </c>
+      <c r="I30">
+        <v>0.947</v>
+      </c>
+      <c r="J30">
+        <v>-0.075</v>
+      </c>
+      <c r="K30">
+        <v>0.242</v>
+      </c>
+      <c r="L30">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.018</v>
+      </c>
+      <c r="E31">
+        <v>0.097</v>
+      </c>
+      <c r="F31">
+        <v>0.952</v>
+      </c>
+      <c r="G31">
+        <v>0.01</v>
+      </c>
+      <c r="H31">
+        <v>0.137</v>
+      </c>
+      <c r="I31">
+        <v>0.952</v>
+      </c>
+      <c r="J31">
+        <v>-0.076</v>
+      </c>
+      <c r="K31">
+        <v>0.212</v>
+      </c>
+      <c r="L31">
+        <v>0.9419999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D32">
+        <v>0.025</v>
+      </c>
+      <c r="E32">
+        <v>0.093</v>
+      </c>
+      <c r="F32">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="G32">
+        <v>0.014</v>
+      </c>
+      <c r="H32">
+        <v>0.125</v>
+      </c>
+      <c r="I32">
+        <v>0.952</v>
+      </c>
+      <c r="J32">
+        <v>-0.076</v>
+      </c>
+      <c r="K32">
+        <v>0.194</v>
+      </c>
+      <c r="L32">
+        <v>0.9429999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>0.034</v>
+      </c>
+      <c r="E33">
+        <v>0.092</v>
+      </c>
+      <c r="F33">
         <v>0.923</v>
       </c>
-      <c r="G23">
-        <v>0.026</v>
-      </c>
-      <c r="H23">
-        <v>0.098</v>
-      </c>
-      <c r="I23">
-        <v>0.9320000000000001</v>
-      </c>
-      <c r="J23">
-        <v>-0.08500000000000001</v>
-      </c>
-      <c r="K23">
-        <v>0.158</v>
-      </c>
-      <c r="L23">
-        <v>0.928</v>
+      <c r="G33">
+        <v>0.019</v>
+      </c>
+      <c r="H33">
+        <v>0.118</v>
+      </c>
+      <c r="I33">
+        <v>0.95</v>
+      </c>
+      <c r="J33">
+        <v>-0.077</v>
+      </c>
+      <c r="K33">
+        <v>0.182</v>
+      </c>
+      <c r="L33">
+        <v>0.9330000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A19:A33"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
